--- a/python/Statistics/Results/classification_comparison_between_DBs_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_between_DBs_1979-2016.xlsx
@@ -142,10 +142,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -453,235 +460,238 @@
   <dimension ref="F1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10024</v>
+      </c>
+      <c r="H2" s="1">
+        <v>141</v>
+      </c>
+      <c r="I2" s="1">
+        <v>149</v>
+      </c>
+      <c r="J2" s="1">
+        <v>69</v>
+      </c>
+      <c r="L2" s="3">
+        <v>9753</v>
+      </c>
+      <c r="M2" s="1">
+        <v>279</v>
+      </c>
+      <c r="N2" s="1">
+        <v>240</v>
+      </c>
+      <c r="O2" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1369</v>
+      </c>
+      <c r="H3" s="3">
+        <v>397</v>
+      </c>
+      <c r="I3" s="1">
+        <v>543</v>
+      </c>
+      <c r="J3" s="1">
+        <v>98</v>
+      </c>
+      <c r="L3" s="1">
+        <v>800</v>
+      </c>
+      <c r="M3" s="3">
+        <v>679</v>
+      </c>
+      <c r="N3" s="1">
+        <v>798</v>
+      </c>
+      <c r="O3" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>390</v>
+      </c>
+      <c r="H4" s="1">
+        <v>50</v>
+      </c>
+      <c r="I4" s="3">
+        <v>381</v>
+      </c>
+      <c r="J4" s="1">
+        <v>91</v>
+      </c>
+      <c r="L4" s="1">
+        <v>196</v>
+      </c>
+      <c r="M4" s="1">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3">
+        <v>495</v>
+      </c>
+      <c r="O4" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>107</v>
+      </c>
+      <c r="H5" s="1">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1">
+        <v>47</v>
+      </c>
+      <c r="J5" s="3">
+        <v>13</v>
+      </c>
+      <c r="L5" s="1">
+        <v>73</v>
+      </c>
+      <c r="M5" s="1">
+        <v>18</v>
+      </c>
+      <c r="N5" s="1">
+        <v>57</v>
+      </c>
+      <c r="O5" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3">
+        <v>10617</v>
+      </c>
+      <c r="M7" s="1">
+        <v>586</v>
+      </c>
+      <c r="N7" s="1">
+        <v>500</v>
+      </c>
+      <c r="O7" s="1">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="1">
+        <v>74</v>
+      </c>
+      <c r="M8" s="3">
+        <v>288</v>
+      </c>
+      <c r="N8" s="1">
+        <v>205</v>
+      </c>
+      <c r="O8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>10024</v>
-      </c>
-      <c r="H2">
-        <v>141</v>
-      </c>
-      <c r="I2">
-        <v>149</v>
-      </c>
-      <c r="J2">
-        <v>69</v>
-      </c>
-      <c r="L2" s="2">
-        <v>9753</v>
-      </c>
-      <c r="M2">
-        <v>279</v>
-      </c>
-      <c r="N2">
-        <v>240</v>
-      </c>
-      <c r="O2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1369</v>
-      </c>
-      <c r="H3" s="2">
-        <v>397</v>
-      </c>
-      <c r="I3">
-        <v>543</v>
-      </c>
-      <c r="J3">
-        <v>98</v>
-      </c>
-      <c r="L3">
-        <v>800</v>
-      </c>
-      <c r="M3" s="2">
-        <v>679</v>
-      </c>
-      <c r="N3">
-        <v>798</v>
-      </c>
-      <c r="O3">
+      <c r="L9" s="1">
+        <v>84</v>
+      </c>
+      <c r="M9" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>390</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2">
-        <v>381</v>
-      </c>
-      <c r="J4">
-        <v>91</v>
-      </c>
-      <c r="L4">
-        <v>196</v>
-      </c>
-      <c r="M4">
-        <v>71</v>
-      </c>
-      <c r="N4" s="2">
-        <v>495</v>
-      </c>
-      <c r="O4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>107</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
+      <c r="N9" s="3">
+        <v>796</v>
+      </c>
+      <c r="O9" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L10" s="1">
         <v>47</v>
       </c>
-      <c r="J5" s="2">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>73</v>
-      </c>
-      <c r="M5">
-        <v>18</v>
-      </c>
-      <c r="N5">
-        <v>57</v>
-      </c>
-      <c r="O5" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="2">
-        <v>10617</v>
-      </c>
-      <c r="M7">
-        <v>586</v>
-      </c>
-      <c r="N7">
-        <v>500</v>
-      </c>
-      <c r="O7">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8">
-        <v>74</v>
-      </c>
-      <c r="M8" s="2">
-        <v>288</v>
-      </c>
-      <c r="N8">
-        <v>205</v>
-      </c>
-      <c r="O8">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9">
-        <v>84</v>
-      </c>
-      <c r="M9">
-        <v>130</v>
-      </c>
-      <c r="N9" s="2">
-        <v>796</v>
-      </c>
-      <c r="O9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>43</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>89</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="3">
         <v>92</v>
       </c>
     </row>

--- a/python/Statistics/Results/classification_comparison_between_DBs_1979-2016.xlsx
+++ b/python/Statistics/Results/classification_comparison_between_DBs_1979-2016.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -113,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -136,13 +136,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,6 +166,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -457,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="F1:O10"/>
+  <dimension ref="F1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,15 +489,16 @@
     <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,20 +514,21 @@
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
@@ -524,20 +544,28 @@
       <c r="J2" s="1">
         <v>69</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
+        <f>SUM(H3,I4,J5)+G2</f>
+        <v>10815</v>
+      </c>
+      <c r="M2" s="3">
         <v>9753</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>279</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>240</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R2" s="1">
+        <f>SUM(N3,O4,P5)+M2</f>
+        <v>10957</v>
+      </c>
+    </row>
+    <row r="3" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -554,19 +582,27 @@
         <v>98</v>
       </c>
       <c r="L3" s="1">
+        <f>SUM(G2:J5)</f>
+        <v>13880</v>
+      </c>
+      <c r="M3" s="1">
         <v>800</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="4">
         <v>679</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>798</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f>SUM(M2:P5)</f>
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="4" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
         <v>4</v>
       </c>
@@ -583,19 +619,27 @@
         <v>91</v>
       </c>
       <c r="L4" s="1">
+        <f>L2/L3*100</f>
+        <v>77.917867435158499</v>
+      </c>
+      <c r="M4" s="1">
         <v>196</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>71</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="4">
         <v>495</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R4" s="1">
+        <f>R2/R3*100</f>
+        <v>78.940922190201732</v>
+      </c>
+    </row>
+    <row r="5" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
@@ -611,87 +655,100 @@
       <c r="J5" s="3">
         <v>13</v>
       </c>
-      <c r="L5" s="1">
+      <c r="K5" s="3"/>
+      <c r="M5" s="1">
         <v>73</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>18</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>57</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>10617</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>586</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>500</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R7" s="1">
+        <f>SUM(N8,O9,P10)+M7</f>
+        <v>11793</v>
+      </c>
+    </row>
+    <row r="8" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>74</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>288</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>205</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R8" s="1">
+        <f>SUM(M7:P10)</f>
+        <v>13880</v>
+      </c>
+    </row>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>84</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>130</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>796</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <f>R7/R8*100</f>
+        <v>84.963976945244951</v>
+      </c>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>47</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>43</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>89</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>92</v>
       </c>
     </row>
